--- a/Result/check3/2025-03-24.xlsx
+++ b/Result/check3/2025-03-24.xlsx
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
     </row>
